--- a/artfynd/A 45719-2021 artfynd.xlsx
+++ b/artfynd/A 45719-2021 artfynd.xlsx
@@ -2978,7 +2978,7 @@
         <v>130834047</v>
       </c>
       <c r="B21" t="n">
-        <v>91767</v>
+        <v>91771</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -3072,45 +3072,49 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130834063</v>
+        <v>130834071</v>
       </c>
       <c r="B22" t="n">
-        <v>91767</v>
+        <v>57897</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5447</v>
+        <v>100048</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Dryobates minor</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Siksjöbergsgruvan, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>516858</v>
+        <v>516848</v>
       </c>
       <c r="R22" t="n">
-        <v>6677494</v>
+        <v>6677496</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3169,49 +3173,45 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130834071</v>
+        <v>130834063</v>
       </c>
       <c r="B23" t="n">
-        <v>57893</v>
+        <v>91771</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100048</v>
+        <v>5447</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Dryobates minor</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Siksjöbergsgruvan, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>516848</v>
+        <v>516858</v>
       </c>
       <c r="R23" t="n">
-        <v>6677496</v>
+        <v>6677494</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3273,7 +3273,7 @@
         <v>130834046</v>
       </c>
       <c r="B24" t="n">
-        <v>92526</v>
+        <v>92530</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>130834060</v>
       </c>
       <c r="B26" t="n">
-        <v>97877</v>
+        <v>97881</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>130834054</v>
       </c>
       <c r="B27" t="n">
-        <v>97874</v>
+        <v>97878</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/artfynd/A 45719-2021 artfynd.xlsx
+++ b/artfynd/A 45719-2021 artfynd.xlsx
@@ -3072,49 +3072,45 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130834071</v>
+        <v>130834063</v>
       </c>
       <c r="B22" t="n">
-        <v>57897</v>
+        <v>91771</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100048</v>
+        <v>5447</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Dryobates minor</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Siksjöbergsgruvan, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>516848</v>
+        <v>516858</v>
       </c>
       <c r="R22" t="n">
-        <v>6677496</v>
+        <v>6677494</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3173,45 +3169,49 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130834063</v>
+        <v>130834071</v>
       </c>
       <c r="B23" t="n">
-        <v>91771</v>
+        <v>57897</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5447</v>
+        <v>100048</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Dryobates minor</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Siksjöbergsgruvan, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>516858</v>
+        <v>516848</v>
       </c>
       <c r="R23" t="n">
-        <v>6677494</v>
+        <v>6677496</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3464,10 +3464,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130834060</v>
+        <v>130834054</v>
       </c>
       <c r="B26" t="n">
-        <v>97881</v>
+        <v>97878</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3475,16 +3475,16 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>221946</v>
+        <v>221945</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lycopodium clavatum</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -3499,10 +3499,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>516909</v>
+        <v>516969</v>
       </c>
       <c r="R26" t="n">
-        <v>6677366</v>
+        <v>6677335</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3529,12 +3529,12 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3561,10 +3561,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130834054</v>
+        <v>130834060</v>
       </c>
       <c r="B27" t="n">
-        <v>97878</v>
+        <v>97881</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>221945</v>
+        <v>221946</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Lycopodium clavatum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -3596,10 +3596,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>516969</v>
+        <v>516909</v>
       </c>
       <c r="R27" t="n">
-        <v>6677335</v>
+        <v>6677366</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3626,12 +3626,12 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="AD27" t="b">

--- a/artfynd/A 45719-2021 artfynd.xlsx
+++ b/artfynd/A 45719-2021 artfynd.xlsx
@@ -3072,45 +3072,49 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130834063</v>
+        <v>130834071</v>
       </c>
       <c r="B22" t="n">
-        <v>91771</v>
+        <v>57897</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5447</v>
+        <v>100048</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Dryobates minor</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Siksjöbergsgruvan, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>516858</v>
+        <v>516848</v>
       </c>
       <c r="R22" t="n">
-        <v>6677494</v>
+        <v>6677496</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3169,49 +3173,45 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130834071</v>
+        <v>130834063</v>
       </c>
       <c r="B23" t="n">
-        <v>57897</v>
+        <v>91771</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100048</v>
+        <v>5447</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Dryobates minor</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Siksjöbergsgruvan, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>516848</v>
+        <v>516858</v>
       </c>
       <c r="R23" t="n">
-        <v>6677496</v>
+        <v>6677494</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3464,10 +3464,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130834054</v>
+        <v>130834060</v>
       </c>
       <c r="B26" t="n">
-        <v>97878</v>
+        <v>97881</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3475,16 +3475,16 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>221945</v>
+        <v>221946</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Lycopodium clavatum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -3499,10 +3499,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>516969</v>
+        <v>516909</v>
       </c>
       <c r="R26" t="n">
-        <v>6677335</v>
+        <v>6677366</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3529,12 +3529,12 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3561,10 +3561,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130834060</v>
+        <v>130834054</v>
       </c>
       <c r="B27" t="n">
-        <v>97881</v>
+        <v>97878</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>221946</v>
+        <v>221945</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lycopodium clavatum</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -3596,10 +3596,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>516909</v>
+        <v>516969</v>
       </c>
       <c r="R27" t="n">
-        <v>6677366</v>
+        <v>6677335</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3626,12 +3626,12 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="AD27" t="b">

--- a/artfynd/A 45719-2021 artfynd.xlsx
+++ b/artfynd/A 45719-2021 artfynd.xlsx
@@ -3072,49 +3072,45 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130834071</v>
+        <v>130834063</v>
       </c>
       <c r="B22" t="n">
-        <v>57897</v>
+        <v>91771</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100048</v>
+        <v>5447</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Dryobates minor</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Siksjöbergsgruvan, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>516848</v>
+        <v>516858</v>
       </c>
       <c r="R22" t="n">
-        <v>6677496</v>
+        <v>6677494</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3173,45 +3169,49 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130834063</v>
+        <v>130834071</v>
       </c>
       <c r="B23" t="n">
-        <v>91771</v>
+        <v>57897</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5447</v>
+        <v>100048</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Dryobates minor</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Siksjöbergsgruvan, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>516858</v>
+        <v>516848</v>
       </c>
       <c r="R23" t="n">
-        <v>6677494</v>
+        <v>6677496</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>

--- a/artfynd/A 45719-2021 artfynd.xlsx
+++ b/artfynd/A 45719-2021 artfynd.xlsx
@@ -3072,45 +3072,49 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130834063</v>
+        <v>130834071</v>
       </c>
       <c r="B22" t="n">
-        <v>91771</v>
+        <v>57897</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5447</v>
+        <v>100048</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Dryobates minor</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Siksjöbergsgruvan, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>516858</v>
+        <v>516848</v>
       </c>
       <c r="R22" t="n">
-        <v>6677494</v>
+        <v>6677496</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3169,49 +3173,45 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130834071</v>
+        <v>130834063</v>
       </c>
       <c r="B23" t="n">
-        <v>57897</v>
+        <v>91771</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100048</v>
+        <v>5447</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Dryobates minor</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Siksjöbergsgruvan, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>516848</v>
+        <v>516858</v>
       </c>
       <c r="R23" t="n">
-        <v>6677496</v>
+        <v>6677494</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>

--- a/artfynd/A 45719-2021 artfynd.xlsx
+++ b/artfynd/A 45719-2021 artfynd.xlsx
@@ -2978,7 +2978,7 @@
         <v>130834047</v>
       </c>
       <c r="B21" t="n">
-        <v>91771</v>
+        <v>91772</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>130834063</v>
       </c>
       <c r="B23" t="n">
-        <v>91771</v>
+        <v>91772</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
         <v>130834046</v>
       </c>
       <c r="B24" t="n">
-        <v>92530</v>
+        <v>92531</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>130834060</v>
       </c>
       <c r="B26" t="n">
-        <v>97881</v>
+        <v>97882</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>130834054</v>
       </c>
       <c r="B27" t="n">
-        <v>97878</v>
+        <v>97879</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/artfynd/A 45719-2021 artfynd.xlsx
+++ b/artfynd/A 45719-2021 artfynd.xlsx
@@ -3072,49 +3072,45 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130834071</v>
+        <v>130834063</v>
       </c>
       <c r="B22" t="n">
-        <v>57897</v>
+        <v>91772</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100048</v>
+        <v>5447</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Dryobates minor</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Siksjöbergsgruvan, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>516848</v>
+        <v>516858</v>
       </c>
       <c r="R22" t="n">
-        <v>6677496</v>
+        <v>6677494</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3173,45 +3169,49 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130834063</v>
+        <v>130834071</v>
       </c>
       <c r="B23" t="n">
-        <v>91772</v>
+        <v>57897</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5447</v>
+        <v>100048</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Dryobates minor</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Siksjöbergsgruvan, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>516858</v>
+        <v>516848</v>
       </c>
       <c r="R23" t="n">
-        <v>6677494</v>
+        <v>6677496</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
